--- a/downloaded_files/MCNS101_Lecture-35450.xlsx
+++ b/downloaded_files/MCNS101_Lecture-35450.xlsx
@@ -75,7 +75,7 @@
     <x:t>كريم سامح صبري محمد عبد الحليم</x:t>
   </x:si>
   <x:si>
-    <x:t>kareem sameh sabry mohamed</x:t>
+    <x:t>Karim Sameh Sabry Mohamed Abdel Halim</x:t>
   </x:si>
   <x:si>
     <x:t>1240256</x:t>
@@ -938,11 +938,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Thermodynamics (MCNS101) Location : [18101]18101-45-الجيزة الرئيسي Time : Sunday(9:11)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Thermodynamics (MCNS101) Location : [20105]20105-45-الجيزة الرئيسي Time : Sunday(9:11)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Thermodynamics (MCNS101) Location : [18101]18101-45-الجيزة الرئيسي Time : Sunday(9:11)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Thermodynamics (MCNS101) Location : [20105]20105-45-الجيزة الرئيسي Time : Sunday(9:11)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Thermodynamics (MCNS101) Location : [18101]18101-45-الجيزة الرئيسي Time : Sunday(9:11)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Thermodynamics (MCNS101) Location : [20105]20105-45-الجيزة الرئيسي Time : Sunday(9:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">

--- a/downloaded_files/MCNS101_Lecture-35450.xlsx
+++ b/downloaded_files/MCNS101_Lecture-35450.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -112,15 +112,6 @@
   </x:si>
   <x:si>
     <x:t>Nada magdy Ali Mohamed Ali Wahba</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230276</x:t>
-  </x:si>
-  <x:si>
-    <x:t>هشام طارق احمد عوض</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hesham Tarek Ahmed Awad</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -236,7 +227,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -536,7 +527,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T11"/>
+  <x:dimension ref="A1:T10"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -546,7 +537,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="25.870625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="43.680625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -691,7 +682,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45908.4194866898</x:v>
+        <x:v>45927.5064560995</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -901,38 +892,6 @@
       <x:c r="S10" s="2" t="s"/>
       <x:c r="T10" s="2" t="s"/>
     </x:row>
-    <x:row r="11" spans="1:20">
-      <x:c r="A11" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B11" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C11" s="2" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="E11" s="3">
-        <x:v>45909.8782289352</x:v>
-      </x:c>
-      <x:c r="F11" s="2" t="s"/>
-      <x:c r="G11" s="2" t="s"/>
-      <x:c r="H11" s="2" t="s"/>
-      <x:c r="I11" s="2" t="s"/>
-      <x:c r="J11" s="2" t="s"/>
-      <x:c r="K11" s="2" t="s"/>
-      <x:c r="L11" s="2" t="s"/>
-      <x:c r="M11" s="2" t="s"/>
-      <x:c r="N11" s="2" t="s"/>
-      <x:c r="O11" s="2" t="s"/>
-      <x:c r="P11" s="2" t="s"/>
-      <x:c r="Q11" s="2" t="s"/>
-      <x:c r="R11" s="2" t="s"/>
-      <x:c r="S11" s="2" t="s"/>
-      <x:c r="T11" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>

--- a/downloaded_files/MCNS101_Lecture-35450.xlsx
+++ b/downloaded_files/MCNS101_Lecture-35450.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -112,6 +112,15 @@
   </x:si>
   <x:si>
     <x:t>Nada magdy Ali Mohamed Ali Wahba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230276</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هشام طارق احمد عوض</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hesham Tarek Ahmed Awad</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -227,7 +236,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -527,7 +536,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T10"/>
+  <x:dimension ref="A1:T11"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -891,6 +900,38 @@
       <x:c r="R10" s="2" t="s"/>
       <x:c r="S10" s="2" t="s"/>
       <x:c r="T10" s="2" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:20">
+      <x:c r="A11" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E11" s="3">
+        <x:v>45928.0234021643</x:v>
+      </x:c>
+      <x:c r="F11" s="2" t="s"/>
+      <x:c r="G11" s="2" t="s"/>
+      <x:c r="H11" s="2" t="s"/>
+      <x:c r="I11" s="2" t="s"/>
+      <x:c r="J11" s="2" t="s"/>
+      <x:c r="K11" s="2" t="s"/>
+      <x:c r="L11" s="2" t="s"/>
+      <x:c r="M11" s="2" t="s"/>
+      <x:c r="N11" s="2" t="s"/>
+      <x:c r="O11" s="2" t="s"/>
+      <x:c r="P11" s="2" t="s"/>
+      <x:c r="Q11" s="2" t="s"/>
+      <x:c r="R11" s="2" t="s"/>
+      <x:c r="S11" s="2" t="s"/>
+      <x:c r="T11" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS101_Lecture-35450.xlsx
+++ b/downloaded_files/MCNS101_Lecture-35450.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,6 +60,15 @@
     <x:t>Afnan Khaled Mohamed Ahmed Ali</x:t>
   </x:si>
   <x:si>
+    <x:t>4230143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>البراء اشرف سيد عبدالموجود حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Albraa Ashraf Sayed Abdelmawgoud Hassan</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240245</x:t>
   </x:si>
   <x:si>
@@ -121,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>Hesham Tarek Ahmed Awad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230329</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف اسلام حجازى محمد سلامة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Islam Hegazy Mohamed Salama</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -236,7 +254,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -536,7 +554,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T11"/>
+  <x:dimension ref="A1:T13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -544,7 +562,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="25.870625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="25.780625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="43.680625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -723,7 +741,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45908.4152319444</x:v>
+        <x:v>45928.4067001505</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -755,7 +773,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6691799769</x:v>
+        <x:v>45908.4152319444</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -787,7 +805,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6697134259</x:v>
+        <x:v>45907.6691799769</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -819,7 +837,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45908.4150593403</x:v>
+        <x:v>45907.6697134259</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -851,7 +869,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6650168634</x:v>
+        <x:v>45908.4150593403</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -883,7 +901,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4157067477</x:v>
+        <x:v>45907.6650168634</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -915,7 +933,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45928.0234021643</x:v>
+        <x:v>45909.4157067477</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -932,6 +950,70 @@
       <x:c r="R11" s="2" t="s"/>
       <x:c r="S11" s="2" t="s"/>
       <x:c r="T11" s="2" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:20">
+      <x:c r="A12" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E12" s="3">
+        <x:v>45928.0234021643</x:v>
+      </x:c>
+      <x:c r="F12" s="2" t="s"/>
+      <x:c r="G12" s="2" t="s"/>
+      <x:c r="H12" s="2" t="s"/>
+      <x:c r="I12" s="2" t="s"/>
+      <x:c r="J12" s="2" t="s"/>
+      <x:c r="K12" s="2" t="s"/>
+      <x:c r="L12" s="2" t="s"/>
+      <x:c r="M12" s="2" t="s"/>
+      <x:c r="N12" s="2" t="s"/>
+      <x:c r="O12" s="2" t="s"/>
+      <x:c r="P12" s="2" t="s"/>
+      <x:c r="Q12" s="2" t="s"/>
+      <x:c r="R12" s="2" t="s"/>
+      <x:c r="S12" s="2" t="s"/>
+      <x:c r="T12" s="2" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:20">
+      <x:c r="A13" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E13" s="3">
+        <x:v>45928.4112783218</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s"/>
+      <x:c r="G13" s="2" t="s"/>
+      <x:c r="H13" s="2" t="s"/>
+      <x:c r="I13" s="2" t="s"/>
+      <x:c r="J13" s="2" t="s"/>
+      <x:c r="K13" s="2" t="s"/>
+      <x:c r="L13" s="2" t="s"/>
+      <x:c r="M13" s="2" t="s"/>
+      <x:c r="N13" s="2" t="s"/>
+      <x:c r="O13" s="2" t="s"/>
+      <x:c r="P13" s="2" t="s"/>
+      <x:c r="Q13" s="2" t="s"/>
+      <x:c r="R13" s="2" t="s"/>
+      <x:c r="S13" s="2" t="s"/>
+      <x:c r="T13" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
